--- a/aimms_model/energy_hub/results/FlatPricing/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FlatPricing/results_costs.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
-  <si>
-    <t>Electric_boiler</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>Gas_CHP</t>
   </si>
@@ -386,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>19410.459383650035</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4762.8713595141326</v>
+        <v>113134.25260950485</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9846.1761484206036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,14 +437,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -455,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4.5544097453840422</v>
+        <v>3709.3387882160555</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>910.1847168030888</v>
+        <v>11816.244161437475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1028.3783977239475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14290.406901269387</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,14 +498,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -524,7 +505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>226.56652893943181</v>
+        <v>3379.3738649993311</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>861.74033557482937</v>
+        <v>36533.170275829085</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2956.8876025955187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>34710.374943464696</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,14 +559,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +566,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>231.12093868481585</v>
+        <v>26499.172036865421</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6534.7964118920509</v>
+        <v>161483.66704677141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13831.442148740069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>49000.781844734083</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,14 +620,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -670,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>24782.949169109521</v>
+        <v>220939.27557284833</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>24782.949169109521</v>
+        <v>220939.27557284833</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -714,10 +679,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>415.32141160606903</v>
+        <v>3656.913220251934</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -743,10 +708,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>415.32141160606903</v>
+        <v>3656.913220251934</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>4417.7851897133714</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/FlatPricing/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FlatPricing/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>19410.459383650035</v>
+        <v>97052.296918273758</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>113134.25260950485</v>
+        <v>565671.26304773113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3709.3387882160555</v>
+        <v>18546.693941080375</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11816.244161437475</v>
+        <v>59081.220807207443</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14290.406901269387</v>
+        <v>71452.03450634706</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3379.3738649993311</v>
+        <v>16896.869324996656</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36533.170275829085</v>
+        <v>182665.85137914543</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34710.374943464696</v>
+        <v>173551.87471732346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>26499.172036865421</v>
+        <v>132495.86018435081</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>161483.66704677141</v>
+        <v>807418.33523408393</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>49000.781844734083</v>
+        <v>245003.90922367052</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>220939.27557284833</v>
+        <v>1104696.3779847582</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>220939.27557284833</v>
+        <v>1104696.3779847582</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.913220251934</v>
+        <v>18284.566101259665</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.913220251934</v>
+        <v>18284.566101259665</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4417.7851897133714</v>
+        <v>22088.92594717984</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/FlatPricing/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FlatPricing/results_costs.xlsx
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>97052.296918273758</v>
+        <v>235971.2837028155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>565671.26304773113</v>
+        <v>494710.42096403294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>18546.693941080375</v>
+        <v>45094.112315620201</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>59081.220807207443</v>
+        <v>51669.755078466864</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>71452.03450634706</v>
+        <v>67582.587191827741</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>16896.869324996656</v>
+        <v>37173.112514992637</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>182665.85137914543</v>
+        <v>161486.60330553402</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>173551.87471732346</v>
+        <v>164153.26430413697</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>132495.86018435081</v>
+        <v>318238.50853342831</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>807418.33523408393</v>
+        <v>707866.77934803383</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>245003.90922367052</v>
+        <v>231735.85149596471</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1104696.3779847582</v>
+        <v>1018495.1562155813</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1104696.3779847582</v>
+        <v>1018495.1562155813</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259665</v>
+        <v>27873.041618610336</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259665</v>
+        <v>27873.041618610336</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>22088.92594717984</v>
+        <v>21283.906052732094</v>
       </c>
     </row>
   </sheetData>
